--- a/results/PSO_rowsCleared1.xlsx
+++ b/results/PSO_rowsCleared1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar/Google Drive/AAA/Lectures/CS3243 AI/canttouchthis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar/Google Drive/AAA/Lectures/CS3243 AI/canttouchthis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,6 +103,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PSO 30 particles 100 iterations (use default coefficients from the PSO library) f = rows - avgNumHoles - avgAggreHeight    </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -9144,11 +9185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="751071152"/>
-        <c:axId val="751073200"/>
+        <c:axId val="1809335792"/>
+        <c:axId val="1737838304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="751071152"/>
+        <c:axId val="1809335792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9157,7 +9198,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="751073200"/>
+        <c:crossAx val="1737838304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9165,7 +9206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="751073200"/>
+        <c:axId val="1737838304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9175,7 +9216,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="751071152"/>
+        <c:crossAx val="1809335792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
